--- a/Week7/docs/SE1601_SWP391_OnlineShop_ProductBacklog_W7.xlsx
+++ b/Week7/docs/SE1601_SWP391_OnlineShop_ProductBacklog_W7.xlsx
@@ -22,7 +22,7 @@
     <t>ASSIGNMENT FUNCTION DETAILS - ONLINE SHOPPING SYSTEM</t>
   </si>
   <si>
-    <t>ITERATION 2 BACKLOG</t>
+    <t>ITERATION 4 BACKLOG</t>
   </si>
   <si>
     <t>Project: Online Shop</t>
@@ -157,9 +157,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="34">
     <font>
@@ -259,15 +259,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -280,31 +294,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -315,6 +307,22 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -335,23 +343,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -373,15 +381,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -390,13 +397,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -483,7 +483,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -495,91 +567,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -597,37 +615,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -702,25 +702,31 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -749,41 +755,35 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -801,7 +801,7 @@
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -819,131 +819,131 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="28" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="26" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="26" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1429,7 +1429,7 @@
   <dimension ref="A1:I982"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
@@ -1437,8 +1437,7 @@
     <col min="1" max="1" width="7.5" customWidth="1"/>
     <col min="2" max="2" width="15.125" customWidth="1"/>
     <col min="3" max="3" width="55.7083333333333" style="1" customWidth="1"/>
-    <col min="4" max="4" width="21.2833333333333" customWidth="1"/>
-    <col min="5" max="6" width="21.2833333333333" customWidth="1"/>
+    <col min="4" max="6" width="21.2833333333333" customWidth="1"/>
     <col min="7" max="7" width="18.875" style="2" customWidth="1"/>
     <col min="8" max="8" width="13.1" customWidth="1"/>
     <col min="9" max="9" width="16.125" customWidth="1"/>
@@ -1866,7 +1865,7 @@
         <v>24</v>
       </c>
       <c r="F20" s="16">
-        <f>IF(E20="Complex",240,IF(E20="Medium",120,60))</f>
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="G20" s="17" t="s">

--- a/Week7/docs/SE1601_SWP391_OnlineShop_ProductBacklog_W7.xlsx
+++ b/Week7/docs/SE1601_SWP391_OnlineShop_ProductBacklog_W7.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9215" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22368" windowHeight="9216" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Iteration 1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Iteration 3'!$A$8:$E$21</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Iteration 4'!$A$8:$E$28</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -235,14 +235,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-  </numFmts>
-  <fonts count="40">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -386,148 +380,11 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -546,194 +403,8 @@
         <bgColor rgb="FFE7E6E6"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="11">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -765,255 +436,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="51">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1157,63 +586,16 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="51">
+  <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
-    <cellStyle name="Normal 5" xfId="8"/>
-    <cellStyle name="60% - Accent4" xfId="9" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9"/>
-    <cellStyle name="Check Cell" xfId="11" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="12" builtinId="17"/>
-    <cellStyle name="Note" xfId="13" builtinId="10"/>
-    <cellStyle name="40% - Accent3" xfId="14" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="15" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="16" builtinId="35"/>
-    <cellStyle name="Title" xfId="17" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="18" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="19" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="20" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="21" builtinId="19"/>
-    <cellStyle name="Input" xfId="22" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="23" builtinId="40"/>
-    <cellStyle name="Good" xfId="24" builtinId="26"/>
-    <cellStyle name="Output" xfId="25" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="27" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="28" builtinId="24"/>
-    <cellStyle name="Total" xfId="29" builtinId="25"/>
-    <cellStyle name="Bad" xfId="30" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="31" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="32" builtinId="29"/>
-    <cellStyle name="Normal 2" xfId="33"/>
-    <cellStyle name="20% - Accent5" xfId="34" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="35" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="36" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="37" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="39" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="40" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="41" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="42" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="43" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="44" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="45" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="46" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="47" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="48" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="49" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="50" builtinId="52"/>
+    <cellStyle name="Normal 2" xfId="2"/>
+    <cellStyle name="Normal 5" xfId="1"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1224,7 +606,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
@@ -1246,7 +628,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1297,7 +679,7 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
@@ -1319,7 +701,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1370,7 +752,7 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
@@ -1392,7 +774,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1443,7 +825,7 @@
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
@@ -1465,7 +847,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1767,11 +1149,12 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryRight="0"/>
   </sheetPr>
@@ -1779,36 +1162,35 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
+      <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="4.83333333333333" style="1" customWidth="1"/>
-    <col min="2" max="2" width="20.1944444444444" customWidth="1"/>
-    <col min="3" max="3" width="9.16666666666667" customWidth="1"/>
-    <col min="4" max="4" width="6.33333333333333" customWidth="1"/>
+    <col min="1" max="1" width="4.77734375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.21875" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" customWidth="1"/>
+    <col min="4" max="4" width="6.33203125" customWidth="1"/>
     <col min="5" max="5" width="16" customWidth="1"/>
-    <col min="6" max="6" width="10.6666666666667" customWidth="1"/>
-    <col min="7" max="7" width="66.6666666666667" customWidth="1"/>
-    <col min="8" max="228" width="8.83333333333333" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" customWidth="1"/>
+    <col min="7" max="7" width="66.6640625" customWidth="1"/>
+    <col min="8" max="228" width="8.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" ht="19.2" spans="5:5">
+    <row r="5" spans="1:7" ht="19.2">
       <c r="E5" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" ht="17.4" spans="5:5">
+    <row r="6" spans="1:7" ht="17.399999999999999">
       <c r="E6" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" ht="18" spans="1:1">
+    <row r="7" spans="1:7" ht="18">
       <c r="A7" s="4"/>
     </row>
-    <row r="8" ht="19.8" spans="1:7">
+    <row r="8" spans="1:7" ht="19.8">
       <c r="A8" s="44" t="s">
         <v>2</v>
       </c>
@@ -1831,7 +1213,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" ht="19.8" spans="1:7">
+    <row r="9" spans="1:7" ht="19.8">
       <c r="A9" s="46">
         <f t="shared" ref="A9:A15" si="0">ROW()-8</f>
         <v>1</v>
@@ -1854,7 +1236,7 @@
       </c>
       <c r="G9" s="48"/>
     </row>
-    <row r="10" ht="19.8" spans="1:7">
+    <row r="10" spans="1:7" ht="19.8">
       <c r="A10" s="46">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -1877,7 +1259,7 @@
       </c>
       <c r="G10" s="48"/>
     </row>
-    <row r="11" ht="28" customHeight="1" spans="1:7">
+    <row r="11" spans="1:7" ht="28.05" customHeight="1">
       <c r="A11" s="46">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1900,7 +1282,7 @@
       </c>
       <c r="G11" s="48"/>
     </row>
-    <row r="12" ht="19.8" spans="1:7">
+    <row r="12" spans="1:7" ht="19.8">
       <c r="A12" s="46">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1923,7 +1305,7 @@
       </c>
       <c r="G12" s="48"/>
     </row>
-    <row r="13" ht="19.8" spans="1:7">
+    <row r="13" spans="1:7" ht="19.8">
       <c r="A13" s="46">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1946,7 +1328,7 @@
       </c>
       <c r="G13" s="48"/>
     </row>
-    <row r="14" ht="19.8" spans="1:7">
+    <row r="14" spans="1:7" ht="19.8">
       <c r="A14" s="46">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1969,7 +1351,7 @@
       </c>
       <c r="G14" s="48"/>
     </row>
-    <row r="15" ht="19.8" spans="1:7">
+    <row r="15" spans="1:7" ht="19.8">
       <c r="A15" s="46">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1992,7 +1374,7 @@
       </c>
       <c r="G15" s="48"/>
     </row>
-    <row r="16" s="43" customFormat="1" ht="19.8" spans="1:7">
+    <row r="16" spans="1:7" s="43" customFormat="1" ht="19.8">
       <c r="A16" s="49">
         <v>8</v>
       </c>
@@ -2007,7 +1389,7 @@
         <v>60</v>
       </c>
       <c r="E16" s="32" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="F16" s="46" t="s">
         <v>12</v>
@@ -2015,9 +1397,7 @@
       <c r="G16" s="50"/>
     </row>
   </sheetData>
-  <autoFilter ref="A8:E16">
-    <extLst/>
-  </autoFilter>
+  <autoFilter ref="A8:E16"/>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C9:C15">
       <formula1>"Simple,Medium,Complex"</formula1>
@@ -2027,14 +1407,13 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryRight="0"/>
   </sheetPr>
@@ -2042,23 +1421,22 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
+      <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="4.83333333333333" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.6666666666667" customWidth="1"/>
-    <col min="3" max="3" width="9.16666666666667" customWidth="1"/>
-    <col min="4" max="4" width="6.33333333333333" customWidth="1"/>
-    <col min="5" max="5" width="22.2222222222222" customWidth="1"/>
-    <col min="6" max="6" width="10.6666666666667" customWidth="1"/>
-    <col min="7" max="7" width="66.6666666666667" customWidth="1"/>
-    <col min="8" max="228" width="8.83333333333333" customWidth="1"/>
+    <col min="1" max="1" width="4.77734375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" customWidth="1"/>
+    <col min="4" max="4" width="6.33203125" customWidth="1"/>
+    <col min="5" max="5" width="22.21875" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" customWidth="1"/>
+    <col min="7" max="7" width="66.6640625" customWidth="1"/>
+    <col min="8" max="228" width="8.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" ht="24.6" spans="1:7">
+    <row r="5" spans="1:9" ht="24.6">
       <c r="A5" s="24"/>
       <c r="B5" s="25"/>
       <c r="C5" s="25"/>
@@ -2069,7 +1447,7 @@
       <c r="F5" s="25"/>
       <c r="G5" s="25"/>
     </row>
-    <row r="6" ht="22.2" spans="1:7">
+    <row r="6" spans="1:9" ht="22.2">
       <c r="A6" s="24"/>
       <c r="B6" s="25"/>
       <c r="C6" s="25"/>
@@ -2080,7 +1458,7 @@
       <c r="F6" s="25"/>
       <c r="G6" s="25"/>
     </row>
-    <row r="7" ht="18" spans="1:7">
+    <row r="7" spans="1:9" ht="18">
       <c r="A7" s="28" t="s">
         <v>2</v>
       </c>
@@ -2103,7 +1481,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" ht="39.6" spans="1:9">
+    <row r="8" spans="1:9" ht="39.6">
       <c r="A8" s="31">
         <v>9</v>
       </c>
@@ -2114,7 +1492,7 @@
         <v>10</v>
       </c>
       <c r="D8" s="34">
-        <f t="shared" ref="D8:D14" si="0">IF(C8="Complex",240,IF(C8="Medium",120,60))</f>
+        <f t="shared" ref="D8:D13" si="0">IF(C8="Complex",240,IF(C8="Medium",120,60))</f>
         <v>60</v>
       </c>
       <c r="E8" s="32" t="s">
@@ -2126,7 +1504,7 @@
       <c r="G8" s="35"/>
       <c r="I8" s="42"/>
     </row>
-    <row r="9" ht="39.6" spans="1:7">
+    <row r="9" spans="1:9" ht="39.6">
       <c r="A9" s="31">
         <v>10</v>
       </c>
@@ -2148,7 +1526,7 @@
       </c>
       <c r="G9" s="35"/>
     </row>
-    <row r="10" ht="19.8" spans="1:7">
+    <row r="10" spans="1:9" ht="19.8">
       <c r="A10" s="31">
         <v>11</v>
       </c>
@@ -2170,7 +1548,7 @@
       </c>
       <c r="G10" s="35"/>
     </row>
-    <row r="11" ht="19.8" spans="1:7">
+    <row r="11" spans="1:9" ht="39.6">
       <c r="A11" s="31">
         <v>12</v>
       </c>
@@ -2192,7 +1570,7 @@
       </c>
       <c r="G11" s="35"/>
     </row>
-    <row r="12" ht="19.8" spans="1:7">
+    <row r="12" spans="1:9" ht="19.8">
       <c r="A12" s="31">
         <v>13</v>
       </c>
@@ -2207,14 +1585,14 @@
         <v>60</v>
       </c>
       <c r="E12" s="32" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="F12" s="32" t="s">
         <v>12</v>
       </c>
       <c r="G12" s="35"/>
     </row>
-    <row r="13" ht="59.4" spans="1:7">
+    <row r="13" spans="1:9" ht="59.4">
       <c r="A13" s="31">
         <v>14</v>
       </c>
@@ -2236,7 +1614,7 @@
       </c>
       <c r="G13" s="35"/>
     </row>
-    <row r="14" ht="15.6" spans="1:7">
+    <row r="14" spans="1:9" ht="15.6">
       <c r="A14" s="37"/>
       <c r="B14" s="38"/>
       <c r="C14" s="38"/>
@@ -2246,9 +1624,7 @@
       <c r="G14" s="40"/>
     </row>
   </sheetData>
-  <autoFilter ref="A7:E14">
-    <extLst/>
-  </autoFilter>
+  <autoFilter ref="A7:E14"/>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C14">
       <formula1>"Simple,Medium,Complex"</formula1>
@@ -2258,51 +1634,49 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryRight="0"/>
   </sheetPr>
   <dimension ref="A5:G21"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection/>
+      <pane ySplit="8" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="4.83333333333333" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.6666666666667" customWidth="1"/>
-    <col min="3" max="3" width="9.16666666666667" customWidth="1"/>
-    <col min="4" max="4" width="6.33333333333333" customWidth="1"/>
+    <col min="1" max="1" width="4.77734375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" customWidth="1"/>
+    <col min="4" max="4" width="6.33203125" customWidth="1"/>
     <col min="5" max="5" width="16" customWidth="1"/>
-    <col min="6" max="6" width="10.6666666666667" customWidth="1"/>
-    <col min="7" max="7" width="66.6666666666667" customWidth="1"/>
-    <col min="8" max="228" width="8.83333333333333" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" customWidth="1"/>
+    <col min="7" max="7" width="66.6640625" customWidth="1"/>
+    <col min="8" max="228" width="8.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" ht="19.2" spans="5:5">
+    <row r="5" spans="1:7" ht="19.2">
       <c r="E5" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" ht="17.4" spans="5:5">
+    <row r="6" spans="1:7" ht="17.399999999999999">
       <c r="E6" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="7" ht="18" spans="1:1">
+    <row r="7" spans="1:7" ht="18">
       <c r="A7" s="4"/>
     </row>
-    <row r="8" s="14" customFormat="1" spans="1:7">
+    <row r="8" spans="1:7" s="14" customFormat="1">
       <c r="A8" s="15" t="s">
         <v>2</v>
       </c>
@@ -2325,7 +1699,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" s="14" customFormat="1" ht="19.8" spans="1:7">
+    <row r="9" spans="1:7" s="14" customFormat="1" ht="19.8">
       <c r="A9" s="18">
         <v>20</v>
       </c>
@@ -2336,7 +1710,7 @@
         <v>19</v>
       </c>
       <c r="D9" s="20">
-        <f>IF(C9="Complex",240,IF(C9="Medium",120,60))</f>
+        <f t="shared" ref="D9:D21" si="0">IF(C9="Complex",240,IF(C9="Medium",120,60))</f>
         <v>120</v>
       </c>
       <c r="E9" s="7" t="s">
@@ -2347,7 +1721,7 @@
       </c>
       <c r="G9" s="22"/>
     </row>
-    <row r="10" s="14" customFormat="1" ht="19.8" spans="1:7">
+    <row r="10" spans="1:7" s="14" customFormat="1" ht="19.8">
       <c r="A10" s="18">
         <v>21</v>
       </c>
@@ -2358,7 +1732,7 @@
         <v>10</v>
       </c>
       <c r="D10" s="20">
-        <f>IF(C10="Complex",240,IF(C10="Medium",120,60))</f>
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="E10" s="7" t="s">
@@ -2369,7 +1743,7 @@
       </c>
       <c r="G10" s="22"/>
     </row>
-    <row r="11" s="14" customFormat="1" ht="19.8" spans="1:7">
+    <row r="11" spans="1:7" s="14" customFormat="1" ht="19.8">
       <c r="A11" s="18">
         <v>22</v>
       </c>
@@ -2380,7 +1754,7 @@
         <v>10</v>
       </c>
       <c r="D11" s="20">
-        <f>IF(C11="Complex",240,IF(C11="Medium",120,60))</f>
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="E11" s="7" t="s">
@@ -2391,7 +1765,7 @@
       </c>
       <c r="G11" s="22"/>
     </row>
-    <row r="12" s="14" customFormat="1" ht="19.8" spans="1:7">
+    <row r="12" spans="1:7" s="14" customFormat="1" ht="19.8">
       <c r="A12" s="18">
         <v>23</v>
       </c>
@@ -2402,7 +1776,7 @@
         <v>10</v>
       </c>
       <c r="D12" s="20">
-        <f>IF(C12="Complex",240,IF(C12="Medium",120,60))</f>
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="E12" s="7" t="s">
@@ -2413,7 +1787,7 @@
       </c>
       <c r="G12" s="22"/>
     </row>
-    <row r="13" s="14" customFormat="1" ht="39.6" spans="1:7">
+    <row r="13" spans="1:7" s="14" customFormat="1" ht="39.6">
       <c r="A13" s="18">
         <v>27</v>
       </c>
@@ -2424,7 +1798,7 @@
         <v>19</v>
       </c>
       <c r="D13" s="20">
-        <f>IF(C13="Complex",240,IF(C13="Medium",120,60))</f>
+        <f t="shared" si="0"/>
         <v>120</v>
       </c>
       <c r="E13" s="7" t="s">
@@ -2435,7 +1809,7 @@
       </c>
       <c r="G13" s="22"/>
     </row>
-    <row r="14" s="14" customFormat="1" ht="39.6" spans="1:7">
+    <row r="14" spans="1:7" s="14" customFormat="1" ht="39.6">
       <c r="A14" s="18">
         <v>15</v>
       </c>
@@ -2446,7 +1820,7 @@
         <v>19</v>
       </c>
       <c r="D14" s="20">
-        <f>IF(C14="Complex",240,IF(C14="Medium",120,60))</f>
+        <f t="shared" si="0"/>
         <v>120</v>
       </c>
       <c r="E14" s="7" t="s">
@@ -2457,7 +1831,7 @@
       </c>
       <c r="G14" s="22"/>
     </row>
-    <row r="15" s="14" customFormat="1" ht="39.6" spans="1:7">
+    <row r="15" spans="1:7" s="14" customFormat="1" ht="39.6">
       <c r="A15" s="18">
         <v>16</v>
       </c>
@@ -2468,7 +1842,7 @@
         <v>19</v>
       </c>
       <c r="D15" s="20">
-        <f>IF(C15="Complex",240,IF(C15="Medium",120,60))</f>
+        <f t="shared" si="0"/>
         <v>120</v>
       </c>
       <c r="E15" s="7" t="s">
@@ -2479,7 +1853,7 @@
       </c>
       <c r="G15" s="22"/>
     </row>
-    <row r="16" s="14" customFormat="1" ht="19.8" spans="1:7">
+    <row r="16" spans="1:7" s="14" customFormat="1" ht="19.8">
       <c r="A16" s="18">
         <v>24</v>
       </c>
@@ -2490,7 +1864,7 @@
         <v>19</v>
       </c>
       <c r="D16" s="20">
-        <f>IF(C16="Complex",240,IF(C16="Medium",120,60))</f>
+        <f t="shared" si="0"/>
         <v>120</v>
       </c>
       <c r="E16" s="7" t="s">
@@ -2501,7 +1875,7 @@
       </c>
       <c r="G16" s="22"/>
     </row>
-    <row r="17" s="14" customFormat="1" ht="19.8" spans="1:7">
+    <row r="17" spans="1:7" s="14" customFormat="1" ht="19.8">
       <c r="A17" s="18">
         <v>25</v>
       </c>
@@ -2512,7 +1886,7 @@
         <v>19</v>
       </c>
       <c r="D17" s="20">
-        <f>IF(C17="Complex",240,IF(C17="Medium",120,60))</f>
+        <f t="shared" si="0"/>
         <v>120</v>
       </c>
       <c r="E17" s="7" t="s">
@@ -2523,7 +1897,7 @@
       </c>
       <c r="G17" s="22"/>
     </row>
-    <row r="18" s="14" customFormat="1" ht="19.8" spans="1:7">
+    <row r="18" spans="1:7" s="14" customFormat="1" ht="19.8">
       <c r="A18" s="18">
         <v>19</v>
       </c>
@@ -2534,7 +1908,7 @@
         <v>10</v>
       </c>
       <c r="D18" s="20">
-        <f>IF(C18="Complex",240,IF(C18="Medium",120,60))</f>
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="E18" s="7" t="s">
@@ -2545,7 +1919,7 @@
       </c>
       <c r="G18" s="22"/>
     </row>
-    <row r="19" s="14" customFormat="1" ht="39.6" spans="1:7">
+    <row r="19" spans="1:7" s="14" customFormat="1" ht="39.6">
       <c r="A19" s="18">
         <v>18</v>
       </c>
@@ -2556,7 +1930,7 @@
         <v>10</v>
       </c>
       <c r="D19" s="20">
-        <f>IF(C19="Complex",240,IF(C19="Medium",120,60))</f>
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="E19" s="7" t="s">
@@ -2567,7 +1941,7 @@
       </c>
       <c r="G19" s="22"/>
     </row>
-    <row r="20" s="14" customFormat="1" ht="19.8" spans="1:7">
+    <row r="20" spans="1:7" s="14" customFormat="1" ht="19.8">
       <c r="A20" s="18">
         <v>26</v>
       </c>
@@ -2578,7 +1952,7 @@
         <v>10</v>
       </c>
       <c r="D20" s="20">
-        <f>IF(C20="Complex",240,IF(C20="Medium",120,60))</f>
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="E20" s="7" t="s">
@@ -2589,7 +1963,7 @@
       </c>
       <c r="G20" s="22"/>
     </row>
-    <row r="21" s="14" customFormat="1" ht="39.6" spans="1:7">
+    <row r="21" spans="1:7" s="14" customFormat="1" ht="39.6">
       <c r="A21" s="18">
         <v>17</v>
       </c>
@@ -2600,7 +1974,7 @@
         <v>10</v>
       </c>
       <c r="D21" s="20">
-        <f>IF(C21="Complex",240,IF(C21="Medium",120,60))</f>
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="E21" s="7" t="s">
@@ -2616,7 +1990,6 @@
     <sortState ref="A9:E21">
       <sortCondition ref="E8"/>
     </sortState>
-    <extLst/>
   </autoFilter>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F9:F21">
@@ -2624,51 +1997,49 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryRight="0"/>
   </sheetPr>
   <dimension ref="A5:G28"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection/>
+      <pane ySplit="8" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="4.83333333333333" style="1" customWidth="1"/>
-    <col min="2" max="2" width="22.6111111111111" customWidth="1"/>
-    <col min="3" max="3" width="9.16666666666667" customWidth="1"/>
-    <col min="4" max="4" width="6.33333333333333" customWidth="1"/>
-    <col min="5" max="5" width="20.8055555555556" customWidth="1"/>
-    <col min="6" max="6" width="10.6666666666667" customWidth="1"/>
-    <col min="7" max="7" width="66.6666666666667" customWidth="1"/>
-    <col min="8" max="228" width="8.83333333333333" customWidth="1"/>
+    <col min="1" max="1" width="4.77734375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.5546875" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" customWidth="1"/>
+    <col min="4" max="4" width="6.33203125" customWidth="1"/>
+    <col min="5" max="5" width="20.77734375" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" customWidth="1"/>
+    <col min="7" max="7" width="66.6640625" customWidth="1"/>
+    <col min="8" max="228" width="8.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" ht="19.2" spans="5:5">
+    <row r="5" spans="1:7" ht="19.2">
       <c r="E5" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" ht="17.4" spans="5:5">
+    <row r="6" spans="1:7" ht="17.399999999999999">
       <c r="E6" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="7" ht="18" spans="1:1">
+    <row r="7" spans="1:7" ht="18">
       <c r="A7" s="4"/>
     </row>
-    <row r="8" ht="19.8" spans="1:7">
+    <row r="8" spans="1:7" ht="19.8">
       <c r="A8" s="5" t="s">
         <v>2</v>
       </c>
@@ -2691,7 +2062,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" ht="19.8" spans="1:7">
+    <row r="9" spans="1:7" ht="19.8">
       <c r="A9" s="7">
         <v>28</v>
       </c>
@@ -2702,7 +2073,7 @@
         <v>10</v>
       </c>
       <c r="D9" s="9">
-        <f>IF(C9="Complex",240,IF(C9="Medium",120,60))</f>
+        <f t="shared" ref="D9:D28" si="0">IF(C9="Complex",240,IF(C9="Medium",120,60))</f>
         <v>60</v>
       </c>
       <c r="E9" s="7" t="s">
@@ -2713,7 +2084,7 @@
       </c>
       <c r="G9" s="10"/>
     </row>
-    <row r="10" ht="19.8" spans="1:7">
+    <row r="10" spans="1:7" ht="19.8">
       <c r="A10" s="7">
         <v>29</v>
       </c>
@@ -2724,7 +2095,7 @@
         <v>10</v>
       </c>
       <c r="D10" s="9">
-        <f>IF(C10="Complex",240,IF(C10="Medium",120,60))</f>
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="E10" s="7" t="s">
@@ -2735,7 +2106,7 @@
       </c>
       <c r="G10" s="10"/>
     </row>
-    <row r="11" ht="19.8" spans="1:7">
+    <row r="11" spans="1:7" ht="19.8">
       <c r="A11" s="7">
         <v>31</v>
       </c>
@@ -2746,7 +2117,7 @@
         <v>10</v>
       </c>
       <c r="D11" s="9">
-        <f>IF(C11="Complex",240,IF(C11="Medium",120,60))</f>
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="E11" s="7" t="s">
@@ -2757,7 +2128,7 @@
       </c>
       <c r="G11" s="10"/>
     </row>
-    <row r="12" ht="19.8" spans="1:7">
+    <row r="12" spans="1:7" ht="19.8">
       <c r="A12" s="7">
         <v>30</v>
       </c>
@@ -2768,7 +2139,7 @@
         <v>16</v>
       </c>
       <c r="D12" s="9">
-        <f>IF(C12="Complex",240,IF(C12="Medium",120,60))</f>
+        <f t="shared" si="0"/>
         <v>240</v>
       </c>
       <c r="E12" s="7" t="s">
@@ -2779,7 +2150,7 @@
       </c>
       <c r="G12" s="10"/>
     </row>
-    <row r="13" ht="19.8" spans="1:7">
+    <row r="13" spans="1:7" ht="19.8">
       <c r="A13" s="7">
         <v>32</v>
       </c>
@@ -2790,7 +2161,7 @@
         <v>19</v>
       </c>
       <c r="D13" s="9">
-        <f>IF(C13="Complex",240,IF(C13="Medium",120,60))</f>
+        <f t="shared" si="0"/>
         <v>120</v>
       </c>
       <c r="E13" s="7" t="s">
@@ -2801,7 +2172,7 @@
       </c>
       <c r="G13" s="10"/>
     </row>
-    <row r="14" ht="19.8" spans="1:7">
+    <row r="14" spans="1:7" ht="19.8">
       <c r="A14" s="7">
         <v>40</v>
       </c>
@@ -2812,7 +2183,7 @@
         <v>19</v>
       </c>
       <c r="D14" s="9">
-        <f>IF(C14="Complex",240,IF(C14="Medium",120,60))</f>
+        <f t="shared" si="0"/>
         <v>120</v>
       </c>
       <c r="E14" s="12" t="s">
@@ -2823,7 +2194,7 @@
       </c>
       <c r="G14" s="10"/>
     </row>
-    <row r="15" ht="19.8" spans="1:7">
+    <row r="15" spans="1:7" ht="19.8">
       <c r="A15" s="7">
         <v>33</v>
       </c>
@@ -2834,7 +2205,7 @@
         <v>19</v>
       </c>
       <c r="D15" s="9">
-        <f>IF(C15="Complex",240,IF(C15="Medium",120,60))</f>
+        <f t="shared" si="0"/>
         <v>120</v>
       </c>
       <c r="E15" s="7" t="s">
@@ -2845,7 +2216,7 @@
       </c>
       <c r="G15" s="10"/>
     </row>
-    <row r="16" ht="53" customHeight="1" spans="1:7">
+    <row r="16" spans="1:7" ht="52.95" customHeight="1">
       <c r="A16" s="7">
         <v>35</v>
       </c>
@@ -2856,7 +2227,7 @@
         <v>10</v>
       </c>
       <c r="D16" s="9">
-        <f>IF(C16="Complex",240,IF(C16="Medium",120,60))</f>
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="E16" s="10" t="s">
@@ -2867,7 +2238,7 @@
       </c>
       <c r="G16" s="10"/>
     </row>
-    <row r="17" ht="33" customHeight="1" spans="1:7">
+    <row r="17" spans="1:7" ht="33" customHeight="1">
       <c r="A17" s="7">
         <v>36</v>
       </c>
@@ -2878,7 +2249,7 @@
         <v>10</v>
       </c>
       <c r="D17" s="9">
-        <f>IF(C17="Complex",240,IF(C17="Medium",120,60))</f>
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="E17" s="10" t="s">
@@ -2889,7 +2260,7 @@
       </c>
       <c r="G17" s="10"/>
     </row>
-    <row r="18" ht="27" customHeight="1" spans="1:7">
+    <row r="18" spans="1:7" ht="27" customHeight="1">
       <c r="A18" s="7">
         <v>37</v>
       </c>
@@ -2900,7 +2271,7 @@
         <v>10</v>
       </c>
       <c r="D18" s="9">
-        <f>IF(C18="Complex",240,IF(C18="Medium",120,60))</f>
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="E18" s="10" t="s">
@@ -2911,7 +2282,7 @@
       </c>
       <c r="G18" s="10"/>
     </row>
-    <row r="19" ht="19.8" spans="1:7">
+    <row r="19" spans="1:7" ht="19.8">
       <c r="A19" s="7">
         <v>45</v>
       </c>
@@ -2922,7 +2293,7 @@
         <v>10</v>
       </c>
       <c r="D19" s="9">
-        <f>IF(C19="Complex",240,IF(C19="Medium",120,60))</f>
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="E19" s="12" t="s">
@@ -2933,7 +2304,7 @@
       </c>
       <c r="G19" s="10"/>
     </row>
-    <row r="20" ht="19.8" spans="1:7">
+    <row r="20" spans="1:7" ht="19.8">
       <c r="A20" s="7">
         <v>45</v>
       </c>
@@ -2944,7 +2315,7 @@
         <v>10</v>
       </c>
       <c r="D20" s="9">
-        <f>IF(C20="Complex",240,IF(C20="Medium",120,60))</f>
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="E20" s="12" t="s">
@@ -2955,7 +2326,7 @@
       </c>
       <c r="G20" s="12"/>
     </row>
-    <row r="21" ht="39.6" spans="1:7">
+    <row r="21" spans="1:7" ht="39.6">
       <c r="A21" s="7">
         <v>33</v>
       </c>
@@ -2966,7 +2337,7 @@
         <v>10</v>
       </c>
       <c r="D21" s="9">
-        <f>IF(C21="Complex",240,IF(C21="Medium",120,60))</f>
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="E21" s="7" t="s">
@@ -2977,7 +2348,7 @@
       </c>
       <c r="G21" s="12"/>
     </row>
-    <row r="22" ht="39.6" spans="1:7">
+    <row r="22" spans="1:7" ht="39.6">
       <c r="A22" s="7">
         <v>34</v>
       </c>
@@ -2988,7 +2359,7 @@
         <v>10</v>
       </c>
       <c r="D22" s="9">
-        <f>IF(C22="Complex",240,IF(C22="Medium",120,60))</f>
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="E22" s="10" t="s">
@@ -2999,7 +2370,7 @@
       </c>
       <c r="G22" s="12"/>
     </row>
-    <row r="23" ht="19.8" spans="1:7">
+    <row r="23" spans="1:7" ht="19.8">
       <c r="A23" s="7">
         <v>39</v>
       </c>
@@ -3010,7 +2381,7 @@
         <v>10</v>
       </c>
       <c r="D23" s="9">
-        <f>IF(C23="Complex",240,IF(C23="Medium",120,60))</f>
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="E23" s="12" t="s">
@@ -3021,7 +2392,7 @@
       </c>
       <c r="G23" s="12"/>
     </row>
-    <row r="24" customFormat="1" ht="19.8" spans="1:7">
+    <row r="24" spans="1:7" ht="19.8">
       <c r="A24" s="7">
         <v>38</v>
       </c>
@@ -3032,7 +2403,7 @@
         <v>10</v>
       </c>
       <c r="D24" s="9">
-        <f>IF(C24="Complex",240,IF(C24="Medium",120,60))</f>
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="E24" s="7" t="s">
@@ -3043,7 +2414,7 @@
       </c>
       <c r="G24" s="12"/>
     </row>
-    <row r="25" customFormat="1" ht="19.8" spans="1:7">
+    <row r="25" spans="1:7" ht="19.8">
       <c r="A25" s="7">
         <v>41</v>
       </c>
@@ -3054,7 +2425,7 @@
         <v>10</v>
       </c>
       <c r="D25" s="9">
-        <f>IF(C25="Complex",240,IF(C25="Medium",120,60))</f>
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="E25" s="7" t="s">
@@ -3065,7 +2436,7 @@
       </c>
       <c r="G25" s="12"/>
     </row>
-    <row r="26" customFormat="1" ht="19.8" spans="1:7">
+    <row r="26" spans="1:7" ht="19.8">
       <c r="A26" s="7">
         <v>42</v>
       </c>
@@ -3076,7 +2447,7 @@
         <v>19</v>
       </c>
       <c r="D26" s="9">
-        <f>IF(C26="Complex",240,IF(C26="Medium",120,60))</f>
+        <f t="shared" si="0"/>
         <v>120</v>
       </c>
       <c r="E26" s="7" t="s">
@@ -3087,7 +2458,7 @@
       </c>
       <c r="G26" s="12"/>
     </row>
-    <row r="27" customFormat="1" ht="19.8" spans="1:7">
+    <row r="27" spans="1:7" ht="19.8">
       <c r="A27" s="7">
         <v>43</v>
       </c>
@@ -3098,7 +2469,7 @@
         <v>19</v>
       </c>
       <c r="D27" s="9">
-        <f>IF(C27="Complex",240,IF(C27="Medium",120,60))</f>
+        <f t="shared" si="0"/>
         <v>120</v>
       </c>
       <c r="E27" s="7" t="s">
@@ -3109,7 +2480,7 @@
       </c>
       <c r="G27" s="12"/>
     </row>
-    <row r="28" customFormat="1" ht="19.8" spans="1:7">
+    <row r="28" spans="1:7" ht="19.8">
       <c r="A28" s="7">
         <v>44</v>
       </c>
@@ -3120,7 +2491,7 @@
         <v>19</v>
       </c>
       <c r="D28" s="9">
-        <f>IF(C28="Complex",240,IF(C28="Medium",120,60))</f>
+        <f t="shared" si="0"/>
         <v>120</v>
       </c>
       <c r="E28" s="7" t="s">
@@ -3136,7 +2507,6 @@
     <sortState ref="A9:E28">
       <sortCondition ref="E8"/>
     </sortState>
-    <extLst/>
   </autoFilter>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F17 F18 F19 F20 F21 F26 F27 F28 F9:F12 F13:F14 F15:F16 F22:F23 F24:F25">
@@ -3144,8 +2514,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>